--- a/Anaveri2.xlsx
+++ b/Anaveri2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650"/>
   </bookViews>
   <sheets>
     <sheet name="Combined_Dataset" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1714" uniqueCount="297">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1940" uniqueCount="298">
   <si>
     <t>İstek No</t>
   </si>
@@ -915,6 +915,9 @@
   </si>
   <si>
     <t>#ofRequest</t>
+  </si>
+  <si>
+    <t>İstek Tipi detay-&gt; boşluklar diğer olacak</t>
   </si>
 </sst>
 </file>
@@ -1617,8 +1620,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:Q160"/>
   <sheetViews>
-    <sheetView topLeftCell="M1" zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
-      <selection activeCell="S4" sqref="S4"/>
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
+      <selection activeCell="M160" sqref="M160"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1680,7 +1683,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="2" spans="1:17" s="8" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:17" s="8" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="10">
         <v>1066718</v>
       </c>
@@ -1732,7 +1735,7 @@
         <v>Kapalı</v>
       </c>
     </row>
-    <row r="3" spans="1:17" s="8" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:17" s="8" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="10">
         <v>1153707</v>
       </c>
@@ -1784,7 +1787,7 @@
         <v>Kapalı</v>
       </c>
     </row>
-    <row r="4" spans="1:17" s="8" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:17" s="8" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="10">
         <v>1161066</v>
       </c>
@@ -1836,7 +1839,7 @@
         <v>Kapalı</v>
       </c>
     </row>
-    <row r="5" spans="1:17" s="8" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:17" s="8" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="10">
         <v>1169734</v>
       </c>
@@ -1888,7 +1891,7 @@
         <v>Kapalı</v>
       </c>
     </row>
-    <row r="6" spans="1:17" s="8" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:17" s="8" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="10">
         <v>1169733</v>
       </c>
@@ -1940,7 +1943,7 @@
         <v>Kapalı</v>
       </c>
     </row>
-    <row r="7" spans="1:17" s="8" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:17" s="8" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="10">
         <v>1172009</v>
       </c>
@@ -1971,9 +1974,15 @@
       <c r="J7" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="K7" s="10"/>
-      <c r="L7" s="10"/>
-      <c r="M7" s="10"/>
+      <c r="K7" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="L7" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="M7" s="10" t="s">
+        <v>25</v>
+      </c>
       <c r="N7" s="10">
         <v>9</v>
       </c>
@@ -1988,7 +1997,7 @@
         <v>Kapalı</v>
       </c>
     </row>
-    <row r="8" spans="1:17" s="8" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:17" s="8" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="10">
         <v>1171874</v>
       </c>
@@ -2040,7 +2049,7 @@
         <v>Kapalı</v>
       </c>
     </row>
-    <row r="9" spans="1:17" s="8" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:17" s="8" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="10">
         <v>1172914</v>
       </c>
@@ -2071,9 +2080,15 @@
       <c r="J9" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="K9" s="10"/>
-      <c r="L9" s="10"/>
-      <c r="M9" s="10"/>
+      <c r="K9" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="L9" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="M9" s="10" t="s">
+        <v>25</v>
+      </c>
       <c r="N9" s="10">
         <v>4</v>
       </c>
@@ -2088,7 +2103,7 @@
         <v>Kapalı</v>
       </c>
     </row>
-    <row r="10" spans="1:17" s="8" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:17" s="8" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="10">
         <v>1173113</v>
       </c>
@@ -2140,7 +2155,7 @@
         <v>Kapalı</v>
       </c>
     </row>
-    <row r="11" spans="1:17" s="8" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:17" s="8" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="10">
         <v>1173539</v>
       </c>
@@ -2194,7 +2209,7 @@
         <v>Kapalı</v>
       </c>
     </row>
-    <row r="12" spans="1:17" s="8" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:17" s="8" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="10">
         <v>1174194</v>
       </c>
@@ -2248,7 +2263,7 @@
         <v>Kapalı</v>
       </c>
     </row>
-    <row r="13" spans="1:17" s="8" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:17" s="8" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="10">
         <v>1174706</v>
       </c>
@@ -2279,9 +2294,15 @@
       <c r="J13" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="K13" s="10"/>
-      <c r="L13" s="10"/>
-      <c r="M13" s="10"/>
+      <c r="K13" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="L13" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="M13" s="10" t="s">
+        <v>25</v>
+      </c>
       <c r="N13" s="10">
         <v>94</v>
       </c>
@@ -2296,7 +2317,7 @@
         <v>Kapalı</v>
       </c>
     </row>
-    <row r="14" spans="1:17" s="8" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:17" s="8" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="10">
         <v>1176225</v>
       </c>
@@ -2327,9 +2348,15 @@
       <c r="J14" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="K14" s="10"/>
-      <c r="L14" s="10"/>
-      <c r="M14" s="10"/>
+      <c r="K14" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="L14" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="M14" s="10" t="s">
+        <v>25</v>
+      </c>
       <c r="N14" s="10">
         <v>0</v>
       </c>
@@ -2342,7 +2369,7 @@
         <v>Kapalı</v>
       </c>
     </row>
-    <row r="15" spans="1:17" s="8" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:17" s="8" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="10">
         <v>1177011</v>
       </c>
@@ -2373,9 +2400,15 @@
       <c r="J15" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="K15" s="10"/>
-      <c r="L15" s="10"/>
-      <c r="M15" s="10"/>
+      <c r="K15" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="L15" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="M15" s="10" t="s">
+        <v>25</v>
+      </c>
       <c r="N15" s="10">
         <v>9</v>
       </c>
@@ -2388,7 +2421,7 @@
         <v>Kapalı</v>
       </c>
     </row>
-    <row r="16" spans="1:17" s="8" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:17" s="8" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="10">
         <v>1178126</v>
       </c>
@@ -2442,7 +2475,7 @@
         <v>Kapalı</v>
       </c>
     </row>
-    <row r="17" spans="1:17" s="8" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:17" s="8" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="10">
         <v>1178878</v>
       </c>
@@ -2496,7 +2529,7 @@
         <v>Kapalı</v>
       </c>
     </row>
-    <row r="18" spans="1:17" s="8" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:17" s="8" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="10">
         <v>1179842</v>
       </c>
@@ -2550,7 +2583,7 @@
         <v>Kapalı</v>
       </c>
     </row>
-    <row r="19" spans="1:17" s="8" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:17" s="8" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="10">
         <v>1180099</v>
       </c>
@@ -2581,9 +2614,15 @@
       <c r="J19" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="K19" s="10"/>
-      <c r="L19" s="10"/>
-      <c r="M19" s="10"/>
+      <c r="K19" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="L19" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="M19" s="10" t="s">
+        <v>25</v>
+      </c>
       <c r="N19" s="10">
         <v>25</v>
       </c>
@@ -2598,7 +2637,7 @@
         <v>Kapalı</v>
       </c>
     </row>
-    <row r="20" spans="1:17" s="8" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:17" s="8" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="10">
         <v>1180719</v>
       </c>
@@ -2652,7 +2691,7 @@
         <v>Kapalı</v>
       </c>
     </row>
-    <row r="21" spans="1:17" s="8" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:17" s="8" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="10">
         <v>1180666</v>
       </c>
@@ -2683,9 +2722,15 @@
       <c r="J21" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="K21" s="10"/>
-      <c r="L21" s="10"/>
-      <c r="M21" s="10"/>
+      <c r="K21" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="L21" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="M21" s="10" t="s">
+        <v>25</v>
+      </c>
       <c r="N21" s="10">
         <v>0</v>
       </c>
@@ -2700,7 +2745,7 @@
         <v>Kapalı</v>
       </c>
     </row>
-    <row r="22" spans="1:17" s="8" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:17" s="8" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="10">
         <v>1180575</v>
       </c>
@@ -2731,9 +2776,15 @@
       <c r="J22" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="K22" s="10"/>
-      <c r="L22" s="10"/>
-      <c r="M22" s="10"/>
+      <c r="K22" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="L22" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="M22" s="10" t="s">
+        <v>25</v>
+      </c>
       <c r="N22" s="10">
         <v>25</v>
       </c>
@@ -2748,7 +2799,7 @@
         <v>Kapalı</v>
       </c>
     </row>
-    <row r="23" spans="1:17" s="8" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:17" s="8" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="10">
         <v>1181172</v>
       </c>
@@ -2802,7 +2853,7 @@
         <v>Kapalı</v>
       </c>
     </row>
-    <row r="24" spans="1:17" s="8" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:17" s="8" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="10">
         <v>1181779</v>
       </c>
@@ -2833,9 +2884,15 @@
       <c r="J24" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="K24" s="10"/>
-      <c r="L24" s="10"/>
-      <c r="M24" s="10"/>
+      <c r="K24" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="L24" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="M24" s="10" t="s">
+        <v>25</v>
+      </c>
       <c r="N24" s="10">
         <v>0</v>
       </c>
@@ -2850,7 +2907,7 @@
         <v>Kapalı</v>
       </c>
     </row>
-    <row r="25" spans="1:17" s="8" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:17" s="8" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="10">
         <v>1182067</v>
       </c>
@@ -2881,9 +2938,15 @@
       <c r="J25" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="K25" s="10"/>
-      <c r="L25" s="10"/>
-      <c r="M25" s="10"/>
+      <c r="K25" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="L25" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="M25" s="10" t="s">
+        <v>25</v>
+      </c>
       <c r="N25" s="10">
         <v>7</v>
       </c>
@@ -2898,7 +2961,7 @@
         <v>Kapalı</v>
       </c>
     </row>
-    <row r="26" spans="1:17" s="8" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:17" s="8" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="10">
         <v>1182735</v>
       </c>
@@ -2952,7 +3015,7 @@
         <v>Kapalı</v>
       </c>
     </row>
-    <row r="27" spans="1:17" s="8" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:17" s="8" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="10">
         <v>1183516</v>
       </c>
@@ -2983,9 +3046,15 @@
       <c r="J27" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="K27" s="10"/>
-      <c r="L27" s="10"/>
-      <c r="M27" s="10"/>
+      <c r="K27" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="L27" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="M27" s="10" t="s">
+        <v>25</v>
+      </c>
       <c r="N27" s="10">
         <v>0</v>
       </c>
@@ -3000,7 +3069,7 @@
         <v>Kapalı</v>
       </c>
     </row>
-    <row r="28" spans="1:17" s="8" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:17" s="8" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="10">
         <v>1183691</v>
       </c>
@@ -3031,9 +3100,15 @@
       <c r="J28" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="K28" s="10"/>
-      <c r="L28" s="10"/>
-      <c r="M28" s="10"/>
+      <c r="K28" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="L28" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="M28" s="10" t="s">
+        <v>25</v>
+      </c>
       <c r="N28" s="10">
         <v>22</v>
       </c>
@@ -3048,7 +3123,7 @@
         <v>Kapalı</v>
       </c>
     </row>
-    <row r="29" spans="1:17" s="8" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:17" s="8" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="10">
         <v>1183834</v>
       </c>
@@ -3079,9 +3154,15 @@
       <c r="J29" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="K29" s="10"/>
-      <c r="L29" s="10"/>
-      <c r="M29" s="10"/>
+      <c r="K29" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="L29" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="M29" s="10" t="s">
+        <v>25</v>
+      </c>
       <c r="N29" s="10">
         <v>5</v>
       </c>
@@ -3146,7 +3227,7 @@
         <v>Açık</v>
       </c>
     </row>
-    <row r="31" spans="1:17" s="8" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:17" s="8" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="10">
         <v>1184826</v>
       </c>
@@ -3200,7 +3281,7 @@
         <v>Kapalı</v>
       </c>
     </row>
-    <row r="32" spans="1:17" s="8" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:17" s="8" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="10">
         <v>1184814</v>
       </c>
@@ -3254,7 +3335,7 @@
         <v>Kapalı</v>
       </c>
     </row>
-    <row r="33" spans="1:17" s="8" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:17" s="8" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="10">
         <v>1184883</v>
       </c>
@@ -3308,7 +3389,7 @@
         <v>Kapalı</v>
       </c>
     </row>
-    <row r="34" spans="1:17" s="8" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:17" s="8" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="10">
         <v>1185155</v>
       </c>
@@ -3339,9 +3420,15 @@
       <c r="J34" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="K34" s="10"/>
-      <c r="L34" s="10"/>
-      <c r="M34" s="10"/>
+      <c r="K34" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="L34" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="M34" s="10" t="s">
+        <v>25</v>
+      </c>
       <c r="N34" s="10">
         <v>0</v>
       </c>
@@ -3356,7 +3443,7 @@
         <v>Kapalı</v>
       </c>
     </row>
-    <row r="35" spans="1:17" s="8" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:17" s="8" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="10">
         <v>1186364</v>
       </c>
@@ -3387,9 +3474,15 @@
       <c r="J35" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="K35" s="10"/>
-      <c r="L35" s="10"/>
-      <c r="M35" s="10"/>
+      <c r="K35" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="L35" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="M35" s="10" t="s">
+        <v>25</v>
+      </c>
       <c r="N35" s="10">
         <v>0</v>
       </c>
@@ -3404,7 +3497,7 @@
         <v>Kapalı</v>
       </c>
     </row>
-    <row r="36" spans="1:17" s="8" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:17" s="8" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="10">
         <v>1186396</v>
       </c>
@@ -3435,9 +3528,15 @@
       <c r="J36" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="K36" s="10"/>
-      <c r="L36" s="10"/>
-      <c r="M36" s="10"/>
+      <c r="K36" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="L36" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="M36" s="10" t="s">
+        <v>25</v>
+      </c>
       <c r="N36" s="10">
         <v>0</v>
       </c>
@@ -3452,7 +3551,7 @@
         <v>Kapalı</v>
       </c>
     </row>
-    <row r="37" spans="1:17" s="8" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:17" s="8" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="10">
         <v>1186404</v>
       </c>
@@ -3506,7 +3605,7 @@
         <v>Kapalı</v>
       </c>
     </row>
-    <row r="38" spans="1:17" s="8" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:17" s="8" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="10">
         <v>1186733</v>
       </c>
@@ -3537,9 +3636,15 @@
       <c r="J38" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="K38" s="10"/>
-      <c r="L38" s="10"/>
-      <c r="M38" s="10"/>
+      <c r="K38" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="L38" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="M38" s="10" t="s">
+        <v>25</v>
+      </c>
       <c r="N38" s="10">
         <v>0</v>
       </c>
@@ -3654,7 +3759,7 @@
         <v>Açık</v>
       </c>
     </row>
-    <row r="41" spans="1:17" s="8" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:17" s="8" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" s="10">
         <v>1187706</v>
       </c>
@@ -3685,9 +3790,15 @@
       <c r="J41" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="K41" s="10"/>
-      <c r="L41" s="10"/>
-      <c r="M41" s="10"/>
+      <c r="K41" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="L41" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="M41" s="10" t="s">
+        <v>25</v>
+      </c>
       <c r="N41" s="10">
         <v>0</v>
       </c>
@@ -3752,7 +3863,7 @@
         <v>Açık</v>
       </c>
     </row>
-    <row r="43" spans="1:17" s="8" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:17" s="8" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" s="10">
         <v>1189419</v>
       </c>
@@ -3806,7 +3917,7 @@
         <v>Kapalı</v>
       </c>
     </row>
-    <row r="44" spans="1:17" s="8" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:17" s="8" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" s="10">
         <v>1189652</v>
       </c>
@@ -3860,7 +3971,7 @@
         <v>Kapalı</v>
       </c>
     </row>
-    <row r="45" spans="1:17" s="8" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:17" s="8" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A45" s="10">
         <v>1189785</v>
       </c>
@@ -3891,9 +4002,15 @@
       <c r="J45" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="K45" s="10"/>
-      <c r="L45" s="10"/>
-      <c r="M45" s="10"/>
+      <c r="K45" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="L45" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="M45" s="10" t="s">
+        <v>25</v>
+      </c>
       <c r="N45" s="10">
         <v>7</v>
       </c>
@@ -3908,7 +4025,7 @@
         <v>Kapalı</v>
       </c>
     </row>
-    <row r="46" spans="1:17" s="8" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:17" s="8" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="10">
         <v>1190790</v>
       </c>
@@ -3962,7 +4079,7 @@
         <v>Kapalı</v>
       </c>
     </row>
-    <row r="47" spans="1:17" s="8" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:17" s="8" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A47" s="10">
         <v>1191070</v>
       </c>
@@ -4016,7 +4133,7 @@
         <v>Kapalı</v>
       </c>
     </row>
-    <row r="48" spans="1:17" s="8" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:17" s="8" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A48" s="10">
         <v>1191099</v>
       </c>
@@ -4047,9 +4164,15 @@
       <c r="J48" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="K48" s="10"/>
-      <c r="L48" s="10"/>
-      <c r="M48" s="10"/>
+      <c r="K48" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="L48" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="M48" s="10" t="s">
+        <v>25</v>
+      </c>
       <c r="N48" s="10">
         <v>1</v>
       </c>
@@ -4064,7 +4187,7 @@
         <v>Kapalı</v>
       </c>
     </row>
-    <row r="49" spans="1:17" s="8" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:17" s="8" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A49" s="10">
         <v>1191496</v>
       </c>
@@ -4095,9 +4218,15 @@
       <c r="J49" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="K49" s="10"/>
-      <c r="L49" s="10"/>
-      <c r="M49" s="10"/>
+      <c r="K49" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="L49" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="M49" s="10" t="s">
+        <v>25</v>
+      </c>
       <c r="N49" s="10">
         <v>3</v>
       </c>
@@ -4162,7 +4291,7 @@
         <v>Açık</v>
       </c>
     </row>
-    <row r="51" spans="1:17" s="8" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:17" s="8" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A51" s="10">
         <v>1191755</v>
       </c>
@@ -4216,7 +4345,7 @@
         <v>Kapalı</v>
       </c>
     </row>
-    <row r="52" spans="1:17" s="8" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:17" s="8" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A52" s="10">
         <v>1192136</v>
       </c>
@@ -4268,7 +4397,7 @@
         <v>Kapalı</v>
       </c>
     </row>
-    <row r="53" spans="1:17" s="8" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:17" s="8" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A53" s="10">
         <v>1192222</v>
       </c>
@@ -4322,7 +4451,7 @@
         <v>Kapalı</v>
       </c>
     </row>
-    <row r="54" spans="1:17" s="8" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:17" s="8" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A54" s="10">
         <v>1192182</v>
       </c>
@@ -4353,9 +4482,15 @@
       <c r="J54" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="K54" s="10"/>
-      <c r="L54" s="10"/>
-      <c r="M54" s="10"/>
+      <c r="K54" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="L54" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="M54" s="10" t="s">
+        <v>25</v>
+      </c>
       <c r="N54" s="10">
         <v>0</v>
       </c>
@@ -4370,7 +4505,7 @@
         <v>Kapalı</v>
       </c>
     </row>
-    <row r="55" spans="1:17" s="8" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:17" s="8" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A55" s="10">
         <v>1192383</v>
       </c>
@@ -4424,7 +4559,7 @@
         <v>Kapalı</v>
       </c>
     </row>
-    <row r="56" spans="1:17" s="8" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:17" s="8" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A56" s="10">
         <v>1192651</v>
       </c>
@@ -4478,7 +4613,7 @@
         <v>Kapalı</v>
       </c>
     </row>
-    <row r="57" spans="1:17" s="8" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:17" s="8" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A57" s="34">
         <v>1193184</v>
       </c>
@@ -4507,9 +4642,15 @@
       <c r="J57" s="37" t="s">
         <v>73</v>
       </c>
-      <c r="K57" s="38"/>
-      <c r="L57" s="38"/>
-      <c r="M57" s="38"/>
+      <c r="K57" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="L57" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="M57" s="10" t="s">
+        <v>25</v>
+      </c>
       <c r="N57" s="38"/>
       <c r="O57" s="39" t="s">
         <v>26</v>
@@ -4572,7 +4713,7 @@
         <v>Açık</v>
       </c>
     </row>
-    <row r="59" spans="1:17" s="8" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:17" s="8" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A59" s="10">
         <v>1193141</v>
       </c>
@@ -4603,9 +4744,15 @@
       <c r="J59" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="K59" s="10"/>
-      <c r="L59" s="10"/>
-      <c r="M59" s="10"/>
+      <c r="K59" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="L59" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="M59" s="10" t="s">
+        <v>25</v>
+      </c>
       <c r="N59" s="10">
         <v>1</v>
       </c>
@@ -4620,7 +4767,7 @@
         <v>Kapalı</v>
       </c>
     </row>
-    <row r="60" spans="1:17" s="8" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:17" s="8" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A60" s="10">
         <v>1193186</v>
       </c>
@@ -4651,9 +4798,15 @@
       <c r="J60" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="K60" s="10"/>
-      <c r="L60" s="10"/>
-      <c r="M60" s="10"/>
+      <c r="K60" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="L60" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="M60" s="10" t="s">
+        <v>25</v>
+      </c>
       <c r="N60" s="10">
         <v>0</v>
       </c>
@@ -4668,7 +4821,7 @@
         <v>Kapalı</v>
       </c>
     </row>
-    <row r="61" spans="1:17" s="8" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:17" s="8" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A61" s="10">
         <v>1193504</v>
       </c>
@@ -4722,7 +4875,7 @@
         <v>Kapalı</v>
       </c>
     </row>
-    <row r="62" spans="1:17" s="8" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:17" s="8" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A62" s="10">
         <v>1193598</v>
       </c>
@@ -4776,7 +4929,7 @@
         <v>Kapalı</v>
       </c>
     </row>
-    <row r="63" spans="1:17" s="8" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:17" s="8" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A63" s="10">
         <v>1193649</v>
       </c>
@@ -4807,9 +4960,15 @@
       <c r="J63" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="K63" s="10"/>
-      <c r="L63" s="10"/>
-      <c r="M63" s="10"/>
+      <c r="K63" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="L63" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="M63" s="10" t="s">
+        <v>25</v>
+      </c>
       <c r="N63" s="10">
         <v>26</v>
       </c>
@@ -4924,7 +5083,7 @@
         <v>Açık</v>
       </c>
     </row>
-    <row r="66" spans="1:17" s="8" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:17" s="8" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A66" s="10">
         <v>1194634</v>
       </c>
@@ -4978,7 +5137,7 @@
         <v>Kapalı</v>
       </c>
     </row>
-    <row r="67" spans="1:17" s="8" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:17" s="8" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A67" s="10">
         <v>1195341</v>
       </c>
@@ -5009,9 +5168,15 @@
       <c r="J67" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="K67" s="10"/>
-      <c r="L67" s="10"/>
-      <c r="M67" s="10"/>
+      <c r="K67" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="L67" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="M67" s="10" t="s">
+        <v>25</v>
+      </c>
       <c r="N67" s="10">
         <v>2</v>
       </c>
@@ -5026,7 +5191,7 @@
         <v>Kapalı</v>
       </c>
     </row>
-    <row r="68" spans="1:17" s="8" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:17" s="8" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A68" s="10">
         <v>1195203</v>
       </c>
@@ -5080,7 +5245,7 @@
         <v>Kapalı</v>
       </c>
     </row>
-    <row r="69" spans="1:17" s="8" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:17" s="8" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A69" s="10">
         <v>1196700</v>
       </c>
@@ -5111,9 +5276,15 @@
       <c r="J69" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="K69" s="16"/>
-      <c r="L69" s="16"/>
-      <c r="M69" s="16"/>
+      <c r="K69" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="L69" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="M69" s="10" t="s">
+        <v>25</v>
+      </c>
       <c r="N69" s="10">
         <v>126</v>
       </c>
@@ -5128,7 +5299,7 @@
         <v>Kapalı</v>
       </c>
     </row>
-    <row r="70" spans="1:17" s="8" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:17" s="8" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A70" s="10">
         <v>1197180</v>
       </c>
@@ -5182,7 +5353,7 @@
         <v>Kapalı</v>
       </c>
     </row>
-    <row r="71" spans="1:17" s="8" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:17" s="8" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A71" s="10">
         <v>1197192</v>
       </c>
@@ -5213,9 +5384,15 @@
       <c r="J71" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="K71" s="10"/>
-      <c r="L71" s="10"/>
-      <c r="M71" s="10"/>
+      <c r="K71" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="L71" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="M71" s="10" t="s">
+        <v>25</v>
+      </c>
       <c r="N71" s="10">
         <v>0</v>
       </c>
@@ -5230,7 +5407,7 @@
         <v>Kapalı</v>
       </c>
     </row>
-    <row r="72" spans="1:17" s="8" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:17" s="8" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A72" s="10">
         <v>1198178</v>
       </c>
@@ -5284,7 +5461,7 @@
         <v>Kapalı</v>
       </c>
     </row>
-    <row r="73" spans="1:17" s="8" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:17" s="8" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A73" s="10">
         <v>1198502</v>
       </c>
@@ -5336,7 +5513,7 @@
         <v>Kapalı</v>
       </c>
     </row>
-    <row r="74" spans="1:17" s="8" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:17" s="8" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A74" s="10">
         <v>1198713</v>
       </c>
@@ -5390,7 +5567,7 @@
         <v>Kapalı</v>
       </c>
     </row>
-    <row r="75" spans="1:17" s="8" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:17" s="8" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A75" s="10">
         <v>1198740</v>
       </c>
@@ -5444,7 +5621,7 @@
         <v>Kapalı</v>
       </c>
     </row>
-    <row r="76" spans="1:17" s="8" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:17" s="8" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A76" s="10">
         <v>1199033</v>
       </c>
@@ -5498,7 +5675,7 @@
         <v>Kapalı</v>
       </c>
     </row>
-    <row r="77" spans="1:17" s="8" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:17" s="8" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A77" s="10">
         <v>1198799</v>
       </c>
@@ -5552,7 +5729,7 @@
         <v>Kapalı</v>
       </c>
     </row>
-    <row r="78" spans="1:17" s="8" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:17" s="8" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A78" s="10">
         <v>1198818</v>
       </c>
@@ -5583,9 +5760,15 @@
       <c r="J78" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="K78" s="10"/>
-      <c r="L78" s="10"/>
-      <c r="M78" s="10"/>
+      <c r="K78" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="L78" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="M78" s="10" t="s">
+        <v>25</v>
+      </c>
       <c r="N78" s="10">
         <v>0</v>
       </c>
@@ -5600,7 +5783,7 @@
         <v>Kapalı</v>
       </c>
     </row>
-    <row r="79" spans="1:17" s="8" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:17" s="8" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A79" s="10">
         <v>1198926</v>
       </c>
@@ -5631,9 +5814,15 @@
       <c r="J79" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="K79" s="10"/>
-      <c r="L79" s="10"/>
-      <c r="M79" s="10"/>
+      <c r="K79" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="L79" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="M79" s="10" t="s">
+        <v>25</v>
+      </c>
       <c r="N79" s="10">
         <v>4</v>
       </c>
@@ -5648,7 +5837,7 @@
         <v>Kapalı</v>
       </c>
     </row>
-    <row r="80" spans="1:17" s="8" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:17" s="8" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A80" s="10">
         <v>1199057</v>
       </c>
@@ -5679,9 +5868,15 @@
       <c r="J80" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="K80" s="10"/>
-      <c r="L80" s="10"/>
-      <c r="M80" s="10"/>
+      <c r="K80" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="L80" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="M80" s="10" t="s">
+        <v>25</v>
+      </c>
       <c r="N80" s="10">
         <v>4</v>
       </c>
@@ -5696,7 +5891,7 @@
         <v>Kapalı</v>
       </c>
     </row>
-    <row r="81" spans="1:17" s="8" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:17" s="8" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A81" s="10">
         <v>1199730</v>
       </c>
@@ -5748,7 +5943,7 @@
         <v>Kapalı</v>
       </c>
     </row>
-    <row r="82" spans="1:17" s="8" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:17" s="8" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A82" s="10">
         <v>1199933</v>
       </c>
@@ -5802,7 +5997,7 @@
         <v>Kapalı</v>
       </c>
     </row>
-    <row r="83" spans="1:17" s="8" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:17" s="8" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A83" s="27">
         <v>1200452</v>
       </c>
@@ -5831,9 +6026,15 @@
       <c r="J83" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="K83" s="31"/>
-      <c r="L83" s="31"/>
-      <c r="M83" s="31"/>
+      <c r="K83" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="L83" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="M83" s="10" t="s">
+        <v>25</v>
+      </c>
       <c r="N83" s="31"/>
       <c r="O83" s="32" t="s">
         <v>26</v>
@@ -5844,7 +6045,7 @@
         <v>Açık</v>
       </c>
     </row>
-    <row r="84" spans="1:17" s="8" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:17" s="8" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A84" s="10">
         <v>1200453</v>
       </c>
@@ -5875,9 +6076,15 @@
       <c r="J84" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="K84" s="10"/>
-      <c r="L84" s="10"/>
-      <c r="M84" s="10"/>
+      <c r="K84" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="L84" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="M84" s="10" t="s">
+        <v>25</v>
+      </c>
       <c r="N84" s="10">
         <v>13</v>
       </c>
@@ -5892,7 +6099,7 @@
         <v>Kapalı</v>
       </c>
     </row>
-    <row r="85" spans="1:17" s="8" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:17" s="8" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A85" s="10">
         <v>1200976</v>
       </c>
@@ -5946,7 +6153,7 @@
         <v>Kapalı</v>
       </c>
     </row>
-    <row r="86" spans="1:17" s="8" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:17" s="8" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A86" s="10">
         <v>1200991</v>
       </c>
@@ -6000,7 +6207,7 @@
         <v>Kapalı</v>
       </c>
     </row>
-    <row r="87" spans="1:17" s="8" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:17" s="8" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A87" s="10">
         <v>1200825</v>
       </c>
@@ -6031,9 +6238,15 @@
       <c r="J87" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="K87" s="10"/>
-      <c r="L87" s="10"/>
-      <c r="M87" s="10"/>
+      <c r="K87" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="L87" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="M87" s="10" t="s">
+        <v>25</v>
+      </c>
       <c r="N87" s="10">
         <v>7</v>
       </c>
@@ -6048,7 +6261,7 @@
         <v>Kapalı</v>
       </c>
     </row>
-    <row r="88" spans="1:17" s="8" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:17" s="8" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A88" s="10">
         <v>1201282</v>
       </c>
@@ -6102,7 +6315,7 @@
         <v>Kapalı</v>
       </c>
     </row>
-    <row r="89" spans="1:17" s="8" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:17" s="8" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A89" s="10">
         <v>1201302</v>
       </c>
@@ -6133,9 +6346,15 @@
       <c r="J89" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="K89" s="10"/>
-      <c r="L89" s="10"/>
-      <c r="M89" s="10"/>
+      <c r="K89" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="L89" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="M89" s="10" t="s">
+        <v>25</v>
+      </c>
       <c r="N89" s="10">
         <v>3</v>
       </c>
@@ -6150,7 +6369,7 @@
         <v>Kapalı</v>
       </c>
     </row>
-    <row r="90" spans="1:17" s="8" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:17" s="8" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A90" s="10">
         <v>1201456</v>
       </c>
@@ -6181,9 +6400,15 @@
       <c r="J90" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="K90" s="10"/>
-      <c r="L90" s="10"/>
-      <c r="M90" s="10"/>
+      <c r="K90" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="L90" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="M90" s="10" t="s">
+        <v>25</v>
+      </c>
       <c r="N90" s="10">
         <v>3</v>
       </c>
@@ -6198,7 +6423,7 @@
         <v>Kapalı</v>
       </c>
     </row>
-    <row r="91" spans="1:17" s="8" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:17" s="8" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A91" s="10">
         <v>1201605</v>
       </c>
@@ -6229,9 +6454,15 @@
       <c r="J91" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="K91" s="10"/>
-      <c r="L91" s="10"/>
-      <c r="M91" s="10"/>
+      <c r="K91" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="L91" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="M91" s="10" t="s">
+        <v>25</v>
+      </c>
       <c r="N91" s="10">
         <v>2</v>
       </c>
@@ -6246,7 +6477,7 @@
         <v>Kapalı</v>
       </c>
     </row>
-    <row r="92" spans="1:17" s="8" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:17" s="8" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A92" s="10">
         <v>1201875</v>
       </c>
@@ -6300,7 +6531,7 @@
         <v>Kapalı</v>
       </c>
     </row>
-    <row r="93" spans="1:17" s="8" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:17" s="8" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A93" s="10">
         <v>1201755</v>
       </c>
@@ -6354,7 +6585,7 @@
         <v>Kapalı</v>
       </c>
     </row>
-    <row r="94" spans="1:17" s="8" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:17" s="8" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A94" s="10">
         <v>1201756</v>
       </c>
@@ -6456,7 +6687,7 @@
         <v>Açık</v>
       </c>
     </row>
-    <row r="96" spans="1:17" s="8" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:17" s="8" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A96" s="10">
         <v>1202240</v>
       </c>
@@ -6510,7 +6741,7 @@
         <v>Kapalı</v>
       </c>
     </row>
-    <row r="97" spans="1:17" s="8" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:17" s="8" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A97" s="10">
         <v>1202263</v>
       </c>
@@ -6541,9 +6772,15 @@
       <c r="J97" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="K97" s="10"/>
-      <c r="L97" s="10"/>
-      <c r="M97" s="10"/>
+      <c r="K97" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="L97" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="M97" s="10" t="s">
+        <v>25</v>
+      </c>
       <c r="N97" s="10">
         <v>1</v>
       </c>
@@ -6558,7 +6795,7 @@
         <v>Kapalı</v>
       </c>
     </row>
-    <row r="98" spans="1:17" s="8" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:17" s="8" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A98" s="10">
         <v>1202386</v>
       </c>
@@ -6589,9 +6826,15 @@
       <c r="J98" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="K98" s="10"/>
-      <c r="L98" s="10"/>
-      <c r="M98" s="10"/>
+      <c r="K98" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="L98" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="M98" s="10" t="s">
+        <v>25</v>
+      </c>
       <c r="N98" s="10">
         <v>1</v>
       </c>
@@ -6606,7 +6849,7 @@
         <v>Kapalı</v>
       </c>
     </row>
-    <row r="99" spans="1:17" s="8" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:17" s="8" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A99" s="10">
         <v>1202692</v>
       </c>
@@ -6637,9 +6880,15 @@
       <c r="J99" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="K99" s="10"/>
-      <c r="L99" s="10"/>
-      <c r="M99" s="10"/>
+      <c r="K99" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="L99" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="M99" s="10" t="s">
+        <v>25</v>
+      </c>
       <c r="N99" s="10">
         <v>14</v>
       </c>
@@ -6654,7 +6903,7 @@
         <v>Kapalı</v>
       </c>
     </row>
-    <row r="100" spans="1:17" s="8" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:17" s="8" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A100" s="10">
         <v>1202711</v>
       </c>
@@ -6685,9 +6934,15 @@
       <c r="J100" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="K100" s="10"/>
-      <c r="L100" s="10"/>
-      <c r="M100" s="10"/>
+      <c r="K100" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="L100" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="M100" s="10" t="s">
+        <v>25</v>
+      </c>
       <c r="N100" s="10">
         <v>0</v>
       </c>
@@ -6702,7 +6957,7 @@
         <v>Kapalı</v>
       </c>
     </row>
-    <row r="101" spans="1:17" s="8" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:17" s="8" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A101" s="10">
         <v>1203210</v>
       </c>
@@ -6756,7 +7011,7 @@
         <v>Kapalı</v>
       </c>
     </row>
-    <row r="102" spans="1:17" s="8" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:17" s="8" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A102" s="10">
         <v>1203221</v>
       </c>
@@ -6787,9 +7042,15 @@
       <c r="J102" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="K102" s="10"/>
-      <c r="L102" s="10"/>
-      <c r="M102" s="10"/>
+      <c r="K102" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="L102" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="M102" s="10" t="s">
+        <v>25</v>
+      </c>
       <c r="N102" s="10">
         <v>82</v>
       </c>
@@ -6804,7 +7065,7 @@
         <v>Kapalı</v>
       </c>
     </row>
-    <row r="103" spans="1:17" s="8" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:17" s="8" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A103" s="10">
         <v>1203229</v>
       </c>
@@ -6858,7 +7119,7 @@
         <v>Kapalı</v>
       </c>
     </row>
-    <row r="104" spans="1:17" s="8" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:17" s="8" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A104" s="10">
         <v>1203266</v>
       </c>
@@ -6889,9 +7150,15 @@
       <c r="J104" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="K104" s="10"/>
-      <c r="L104" s="10"/>
-      <c r="M104" s="10"/>
+      <c r="K104" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="L104" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="M104" s="10" t="s">
+        <v>25</v>
+      </c>
       <c r="N104" s="10">
         <v>4</v>
       </c>
@@ -6906,7 +7173,7 @@
         <v>Kapalı</v>
       </c>
     </row>
-    <row r="105" spans="1:17" s="8" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:17" s="8" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A105" s="10">
         <v>1203426</v>
       </c>
@@ -6937,9 +7204,15 @@
       <c r="J105" s="16" t="s">
         <v>207</v>
       </c>
-      <c r="K105" s="16"/>
-      <c r="L105" s="16"/>
-      <c r="M105" s="16"/>
+      <c r="K105" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="L105" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="M105" s="10" t="s">
+        <v>25</v>
+      </c>
       <c r="N105" s="10">
         <v>94</v>
       </c>
@@ -7002,7 +7275,7 @@
         <v>Açık</v>
       </c>
     </row>
-    <row r="107" spans="1:17" s="8" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:17" s="8" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A107" s="10">
         <v>1203419</v>
       </c>
@@ -7033,9 +7306,15 @@
       <c r="J107" s="9" t="s">
         <v>210</v>
       </c>
-      <c r="K107" s="10"/>
-      <c r="L107" s="10"/>
-      <c r="M107" s="10"/>
+      <c r="K107" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="L107" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="M107" s="10" t="s">
+        <v>25</v>
+      </c>
       <c r="N107" s="10">
         <v>3</v>
       </c>
@@ -7050,7 +7329,7 @@
         <v>Kapalı</v>
       </c>
     </row>
-    <row r="108" spans="1:17" s="8" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:17" s="8" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A108" s="10">
         <v>1203550</v>
       </c>
@@ -7081,9 +7360,15 @@
       <c r="J108" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="K108" s="10"/>
-      <c r="L108" s="10"/>
-      <c r="M108" s="10"/>
+      <c r="K108" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="L108" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="M108" s="10" t="s">
+        <v>25</v>
+      </c>
       <c r="N108" s="10">
         <v>3</v>
       </c>
@@ -7098,7 +7383,7 @@
         <v>Kapalı</v>
       </c>
     </row>
-    <row r="109" spans="1:17" s="8" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:17" s="8" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A109" s="10">
         <v>1203606</v>
       </c>
@@ -7129,9 +7414,15 @@
       <c r="J109" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="K109" s="10"/>
-      <c r="L109" s="10"/>
-      <c r="M109" s="10"/>
+      <c r="K109" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="L109" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="M109" s="10" t="s">
+        <v>25</v>
+      </c>
       <c r="N109" s="10">
         <v>21</v>
       </c>
@@ -7146,7 +7437,7 @@
         <v>Kapalı</v>
       </c>
     </row>
-    <row r="110" spans="1:17" s="8" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:17" s="8" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A110" s="10">
         <v>1203910</v>
       </c>
@@ -7177,9 +7468,15 @@
       <c r="J110" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="K110" s="10"/>
-      <c r="L110" s="10"/>
-      <c r="M110" s="10"/>
+      <c r="K110" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="L110" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="M110" s="10" t="s">
+        <v>25</v>
+      </c>
       <c r="N110" s="10">
         <v>2</v>
       </c>
@@ -7194,7 +7491,7 @@
         <v>Kapalı</v>
       </c>
     </row>
-    <row r="111" spans="1:17" s="8" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:17" s="8" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A111" s="10">
         <v>1204974</v>
       </c>
@@ -7248,7 +7545,7 @@
         <v>Kapalı</v>
       </c>
     </row>
-    <row r="112" spans="1:17" s="8" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:17" s="8" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A112" s="10">
         <v>1215628</v>
       </c>
@@ -7302,7 +7599,7 @@
         <v>Kapalı</v>
       </c>
     </row>
-    <row r="113" spans="1:17" s="8" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:17" s="8" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A113" s="10">
         <v>1215724</v>
       </c>
@@ -7406,7 +7703,7 @@
         <v>Açık</v>
       </c>
     </row>
-    <row r="115" spans="1:17" s="8" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:17" s="8" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A115" s="10">
         <v>1215638</v>
       </c>
@@ -7460,7 +7757,7 @@
         <v>Kapalı</v>
       </c>
     </row>
-    <row r="116" spans="1:17" s="8" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:17" s="8" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A116" s="10">
         <v>1216838</v>
       </c>
@@ -7491,9 +7788,15 @@
       <c r="J116" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="K116" s="10"/>
-      <c r="L116" s="10"/>
-      <c r="M116" s="10"/>
+      <c r="K116" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="L116" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="M116" s="10" t="s">
+        <v>25</v>
+      </c>
       <c r="N116" s="10">
         <v>53</v>
       </c>
@@ -7556,7 +7859,7 @@
         <v>Açık</v>
       </c>
     </row>
-    <row r="118" spans="1:17" s="8" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:17" s="8" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A118" s="10">
         <v>1217579</v>
       </c>
@@ -7587,9 +7890,15 @@
       <c r="J118" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="K118" s="10"/>
-      <c r="L118" s="10"/>
-      <c r="M118" s="10"/>
+      <c r="K118" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="L118" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="M118" s="10" t="s">
+        <v>25</v>
+      </c>
       <c r="N118" s="10">
         <v>5</v>
       </c>
@@ -7604,7 +7913,7 @@
         <v>Kapalı</v>
       </c>
     </row>
-    <row r="119" spans="1:17" s="8" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:17" s="8" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A119" s="10">
         <v>1217369</v>
       </c>
@@ -7658,7 +7967,7 @@
         <v>Kapalı</v>
       </c>
     </row>
-    <row r="120" spans="1:17" s="8" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:17" s="8" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A120" s="10">
         <v>1217370</v>
       </c>
@@ -7712,7 +8021,7 @@
         <v>Kapalı</v>
       </c>
     </row>
-    <row r="121" spans="1:17" s="8" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:17" s="8" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A121" s="10">
         <v>1218029</v>
       </c>
@@ -7766,7 +8075,7 @@
         <v>Kapalı</v>
       </c>
     </row>
-    <row r="122" spans="1:17" s="8" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:17" s="8" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A122" s="10">
         <v>1218099</v>
       </c>
@@ -7820,7 +8129,7 @@
         <v>Kapalı</v>
       </c>
     </row>
-    <row r="123" spans="1:17" s="8" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:17" s="8" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A123" s="10">
         <v>1218578</v>
       </c>
@@ -7851,9 +8160,15 @@
       <c r="J123" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="K123" s="10"/>
-      <c r="L123" s="10"/>
-      <c r="M123" s="10"/>
+      <c r="K123" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="L123" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="M123" s="10" t="s">
+        <v>25</v>
+      </c>
       <c r="N123" s="10">
         <v>0</v>
       </c>
@@ -7868,7 +8183,7 @@
         <v>Kapalı</v>
       </c>
     </row>
-    <row r="124" spans="1:17" s="8" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:17" s="8" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A124" s="10">
         <v>1218908</v>
       </c>
@@ -7899,9 +8214,15 @@
       <c r="J124" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="K124" s="10"/>
-      <c r="L124" s="10"/>
-      <c r="M124" s="10"/>
+      <c r="K124" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="L124" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="M124" s="10" t="s">
+        <v>25</v>
+      </c>
       <c r="N124" s="10">
         <v>8</v>
       </c>
@@ -7916,7 +8237,7 @@
         <v>Kapalı</v>
       </c>
     </row>
-    <row r="125" spans="1:17" s="8" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:17" s="8" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A125" s="10">
         <v>1219338</v>
       </c>
@@ -7947,9 +8268,15 @@
       <c r="J125" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="K125" s="10"/>
-      <c r="L125" s="10"/>
-      <c r="M125" s="10"/>
+      <c r="K125" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="L125" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="M125" s="10" t="s">
+        <v>25</v>
+      </c>
       <c r="N125" s="10">
         <v>2</v>
       </c>
@@ -7964,7 +8291,7 @@
         <v>Kapalı</v>
       </c>
     </row>
-    <row r="126" spans="1:17" s="8" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:17" s="8" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A126" s="10">
         <v>1219703</v>
       </c>
@@ -7995,9 +8322,15 @@
       <c r="J126" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="K126" s="10"/>
-      <c r="L126" s="10"/>
-      <c r="M126" s="10"/>
+      <c r="K126" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="L126" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="M126" s="10" t="s">
+        <v>25</v>
+      </c>
       <c r="N126" s="10">
         <v>7</v>
       </c>
@@ -8012,7 +8345,7 @@
         <v>Kapalı</v>
       </c>
     </row>
-    <row r="127" spans="1:17" s="8" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:17" s="8" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A127" s="10">
         <v>1220296</v>
       </c>
@@ -8043,9 +8376,15 @@
       <c r="J127" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="K127" s="10"/>
-      <c r="L127" s="10"/>
-      <c r="M127" s="10"/>
+      <c r="K127" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="L127" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="M127" s="10" t="s">
+        <v>25</v>
+      </c>
       <c r="N127" s="10">
         <v>3</v>
       </c>
@@ -8060,7 +8399,7 @@
         <v>Kapalı</v>
       </c>
     </row>
-    <row r="128" spans="1:17" s="8" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:17" s="8" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A128" s="10">
         <v>1220442</v>
       </c>
@@ -8114,7 +8453,7 @@
         <v>Kapalı</v>
       </c>
     </row>
-    <row r="129" spans="1:17" s="8" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:17" s="8" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A129" s="10">
         <v>1221777</v>
       </c>
@@ -8168,7 +8507,7 @@
         <v>Kapalı</v>
       </c>
     </row>
-    <row r="130" spans="1:17" s="8" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:17" s="8" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A130" s="10">
         <v>1221778</v>
       </c>
@@ -8222,7 +8561,7 @@
         <v>Kapalı</v>
       </c>
     </row>
-    <row r="131" spans="1:17" s="8" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:17" s="8" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A131" s="10">
         <v>1222888</v>
       </c>
@@ -8326,7 +8665,7 @@
         <v>Açık</v>
       </c>
     </row>
-    <row r="133" spans="1:17" s="8" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:17" s="8" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A133" s="10">
         <v>1222935</v>
       </c>
@@ -8357,9 +8696,15 @@
       <c r="J133" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="K133" s="10"/>
-      <c r="L133" s="10"/>
-      <c r="M133" s="10"/>
+      <c r="K133" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="L133" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="M133" s="10" t="s">
+        <v>25</v>
+      </c>
       <c r="N133" s="10">
         <v>5</v>
       </c>
@@ -8374,7 +8719,7 @@
         <v>Kapalı</v>
       </c>
     </row>
-    <row r="134" spans="1:17" s="8" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:17" s="8" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A134" s="10">
         <v>1223037</v>
       </c>
@@ -8405,9 +8750,15 @@
       <c r="J134" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="K134" s="10"/>
-      <c r="L134" s="10"/>
-      <c r="M134" s="10"/>
+      <c r="K134" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="L134" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="M134" s="10" t="s">
+        <v>25</v>
+      </c>
       <c r="N134" s="10">
         <v>5</v>
       </c>
@@ -8422,7 +8773,7 @@
         <v>Kapalı</v>
       </c>
     </row>
-    <row r="135" spans="1:17" s="8" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:17" s="8" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A135" s="10">
         <v>1223362</v>
       </c>
@@ -8453,9 +8804,15 @@
       <c r="J135" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="K135" s="10"/>
-      <c r="L135" s="10"/>
-      <c r="M135" s="10"/>
+      <c r="K135" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="L135" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="M135" s="10" t="s">
+        <v>25</v>
+      </c>
       <c r="N135" s="10">
         <v>3</v>
       </c>
@@ -8568,7 +8925,7 @@
         <v>Açık</v>
       </c>
     </row>
-    <row r="138" spans="1:17" s="8" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:17" s="8" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A138" s="4">
         <v>1224230</v>
       </c>
@@ -8597,9 +8954,15 @@
       <c r="J138" s="23" t="s">
         <v>247</v>
       </c>
-      <c r="K138" s="24"/>
-      <c r="L138" s="24"/>
-      <c r="M138" s="24"/>
+      <c r="K138" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="L138" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="M138" s="10" t="s">
+        <v>25</v>
+      </c>
       <c r="N138" s="24"/>
       <c r="O138" s="25" t="s">
         <v>26</v>
@@ -8612,7 +8975,7 @@
         <v>Açık</v>
       </c>
     </row>
-    <row r="139" spans="1:17" s="8" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:17" s="8" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A139" s="10">
         <v>1224630</v>
       </c>
@@ -8643,9 +9006,15 @@
       <c r="J139" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="K139" s="10"/>
-      <c r="L139" s="10"/>
-      <c r="M139" s="10"/>
+      <c r="K139" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="L139" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="M139" s="10" t="s">
+        <v>25</v>
+      </c>
       <c r="N139" s="10">
         <v>4</v>
       </c>
@@ -8660,7 +9029,7 @@
         <v>Kapalı</v>
       </c>
     </row>
-    <row r="140" spans="1:17" s="8" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:17" s="8" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A140" s="10">
         <v>1224794</v>
       </c>
@@ -8691,9 +9060,15 @@
       <c r="J140" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="K140" s="10"/>
-      <c r="L140" s="10"/>
-      <c r="M140" s="10"/>
+      <c r="K140" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="L140" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="M140" s="10" t="s">
+        <v>25</v>
+      </c>
       <c r="N140" s="10">
         <v>1</v>
       </c>
@@ -8708,7 +9083,7 @@
         <v>Kapalı</v>
       </c>
     </row>
-    <row r="141" spans="1:17" s="8" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:17" s="8" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A141" s="10">
         <v>1224811</v>
       </c>
@@ -8739,9 +9114,15 @@
       <c r="J141" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="K141" s="10"/>
-      <c r="L141" s="10"/>
-      <c r="M141" s="10"/>
+      <c r="K141" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="L141" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="M141" s="10" t="s">
+        <v>25</v>
+      </c>
       <c r="N141" s="10">
         <v>0</v>
       </c>
@@ -8756,7 +9137,7 @@
         <v>Kapalı</v>
       </c>
     </row>
-    <row r="142" spans="1:17" s="8" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:17" s="8" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A142" s="10">
         <v>1225035</v>
       </c>
@@ -8808,7 +9189,7 @@
         <v>Kapalı</v>
       </c>
     </row>
-    <row r="143" spans="1:17" s="8" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:17" s="8" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A143" s="10">
         <v>1225010</v>
       </c>
@@ -8839,9 +9220,15 @@
       <c r="J143" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="K143" s="10"/>
-      <c r="L143" s="10"/>
-      <c r="M143" s="10"/>
+      <c r="K143" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="L143" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="M143" s="10" t="s">
+        <v>25</v>
+      </c>
       <c r="N143" s="10">
         <v>0</v>
       </c>
@@ -8856,7 +9243,7 @@
         <v>Kapalı</v>
       </c>
     </row>
-    <row r="144" spans="1:17" s="8" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:17" s="8" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A144" s="10">
         <v>1225314</v>
       </c>
@@ -8910,7 +9297,7 @@
         <v>Kapalı</v>
       </c>
     </row>
-    <row r="145" spans="1:17" s="8" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:17" s="8" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A145" s="10">
         <v>1225370</v>
       </c>
@@ -8941,9 +9328,15 @@
       <c r="J145" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="K145" s="10"/>
-      <c r="L145" s="10"/>
-      <c r="M145" s="10"/>
+      <c r="K145" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="L145" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="M145" s="10" t="s">
+        <v>25</v>
+      </c>
       <c r="N145" s="10">
         <v>4</v>
       </c>
@@ -8958,7 +9351,7 @@
         <v>Kapalı</v>
       </c>
     </row>
-    <row r="146" spans="1:17" s="8" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:17" s="8" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A146" s="10">
         <v>1225460</v>
       </c>
@@ -8989,9 +9382,15 @@
       <c r="J146" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="K146" s="10"/>
-      <c r="L146" s="10"/>
-      <c r="M146" s="10"/>
+      <c r="K146" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="L146" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="M146" s="10" t="s">
+        <v>25</v>
+      </c>
       <c r="N146" s="10">
         <v>0</v>
       </c>
@@ -9006,7 +9405,7 @@
         <v>Kapalı</v>
       </c>
     </row>
-    <row r="147" spans="1:17" s="8" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:17" s="8" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A147" s="10">
         <v>1226028</v>
       </c>
@@ -9037,9 +9436,15 @@
       <c r="J147" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="K147" s="10"/>
-      <c r="L147" s="10"/>
-      <c r="M147" s="10"/>
+      <c r="K147" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="L147" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="M147" s="10" t="s">
+        <v>25</v>
+      </c>
       <c r="N147" s="10">
         <v>6</v>
       </c>
@@ -9054,7 +9459,7 @@
         <v>Kapalı</v>
       </c>
     </row>
-    <row r="148" spans="1:17" s="8" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:17" s="8" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A148" s="10">
         <v>1227346</v>
       </c>
@@ -9085,9 +9490,15 @@
       <c r="J148" s="16" t="s">
         <v>260</v>
       </c>
-      <c r="K148" s="16"/>
-      <c r="L148" s="16"/>
-      <c r="M148" s="16"/>
+      <c r="K148" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="L148" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="M148" s="10" t="s">
+        <v>25</v>
+      </c>
       <c r="N148" s="10">
         <v>2</v>
       </c>
@@ -9102,7 +9513,7 @@
         <v>Kapalı</v>
       </c>
     </row>
-    <row r="149" spans="1:17" s="8" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:17" s="8" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A149" s="10">
         <v>1227457</v>
       </c>
@@ -9133,9 +9544,15 @@
       <c r="J149" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="K149" s="16"/>
-      <c r="L149" s="16"/>
-      <c r="M149" s="16"/>
+      <c r="K149" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="L149" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="M149" s="10" t="s">
+        <v>25</v>
+      </c>
       <c r="N149" s="10">
         <v>2</v>
       </c>
@@ -9150,7 +9567,7 @@
         <v>Kapalı</v>
       </c>
     </row>
-    <row r="150" spans="1:17" s="8" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:17" s="8" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A150" s="10">
         <v>1227786</v>
       </c>
@@ -9181,9 +9598,15 @@
       <c r="J150" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="K150" s="16"/>
-      <c r="L150" s="16"/>
-      <c r="M150" s="16"/>
+      <c r="K150" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="L150" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="M150" s="10" t="s">
+        <v>25</v>
+      </c>
       <c r="N150" s="10">
         <v>5</v>
       </c>
@@ -9196,7 +9619,7 @@
         <v>Kapalı</v>
       </c>
     </row>
-    <row r="151" spans="1:17" s="8" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:17" s="8" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A151" s="10">
         <v>1227792</v>
       </c>
@@ -9227,9 +9650,15 @@
       <c r="J151" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="K151" s="16"/>
-      <c r="L151" s="16"/>
-      <c r="M151" s="16"/>
+      <c r="K151" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="L151" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="M151" s="10" t="s">
+        <v>25</v>
+      </c>
       <c r="N151" s="10">
         <v>5</v>
       </c>
@@ -9290,7 +9719,7 @@
         <v>Açık</v>
       </c>
     </row>
-    <row r="153" spans="1:17" s="8" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:17" s="8" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A153" s="1">
         <v>1228279</v>
       </c>
@@ -9321,9 +9750,15 @@
       <c r="J153" s="16" t="s">
         <v>260</v>
       </c>
-      <c r="K153" s="16"/>
-      <c r="L153" s="16"/>
-      <c r="M153" s="16"/>
+      <c r="K153" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="L153" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="M153" s="10" t="s">
+        <v>25</v>
+      </c>
       <c r="N153" s="10">
         <v>0</v>
       </c>
@@ -9432,7 +9867,7 @@
         <v>Açık</v>
       </c>
     </row>
-    <row r="156" spans="1:17" s="8" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:17" s="8" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A156" s="1">
         <v>1229164</v>
       </c>
@@ -9461,9 +9896,15 @@
       <c r="J156" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="K156" s="16"/>
-      <c r="L156" s="16"/>
-      <c r="M156" s="16"/>
+      <c r="K156" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="L156" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="M156" s="10" t="s">
+        <v>25</v>
+      </c>
       <c r="N156" s="10"/>
       <c r="O156" s="11" t="s">
         <v>26</v>
@@ -9474,7 +9915,7 @@
         <v>Açık</v>
       </c>
     </row>
-    <row r="157" spans="1:17" s="8" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:17" s="8" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A157" s="1">
         <v>1229846</v>
       </c>
@@ -9503,9 +9944,15 @@
       <c r="J157" s="16" t="s">
         <v>247</v>
       </c>
-      <c r="K157" s="16"/>
-      <c r="L157" s="16"/>
-      <c r="M157" s="16"/>
+      <c r="K157" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="L157" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="M157" s="10" t="s">
+        <v>25</v>
+      </c>
       <c r="N157" s="10"/>
       <c r="O157" s="11" t="s">
         <v>26</v>
@@ -9612,7 +10059,7 @@
         <v>Açık</v>
       </c>
     </row>
-    <row r="160" spans="1:17" s="8" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:17" s="8" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A160" s="1">
         <v>1230855</v>
       </c>
@@ -9641,9 +10088,15 @@
       <c r="J160" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="K160" s="16"/>
-      <c r="L160" s="16"/>
-      <c r="M160" s="16"/>
+      <c r="K160" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="L160" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="M160" s="10" t="s">
+        <v>25</v>
+      </c>
       <c r="N160" s="10"/>
       <c r="O160" s="11" t="s">
         <v>26</v>
@@ -9656,14 +10109,12 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:Q160">
-    <filterColumn colId="16">
-      <filters>
-        <filter val="Kapalı"/>
-      </filters>
+    <filterColumn colId="10">
+      <filters blank="1"/>
     </filterColumn>
   </autoFilter>
   <conditionalFormatting sqref="A1:A160">
-    <cfRule type="duplicateValues" dxfId="0" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <customProperties>
@@ -9676,7 +10127,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
@@ -9716,10 +10167,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q7"/>
+  <dimension ref="A1:Q11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -9854,12 +10305,17 @@
         <v>290</v>
       </c>
     </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>297</v>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="A6">
-    <cfRule type="duplicateValues" dxfId="2" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7">
-    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <customProperties>

--- a/Anaveri2.xlsx
+++ b/Anaveri2.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1940" uniqueCount="298">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1940" uniqueCount="299">
   <si>
     <t>İstek No</t>
   </si>
@@ -918,6 +918,9 @@
   </si>
   <si>
     <t>İstek Tipi detay-&gt; boşluklar diğer olacak</t>
+  </si>
+  <si>
+    <t>Danışman_Firma</t>
   </si>
 </sst>
 </file>
@@ -1617,11 +1620,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:Q160"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
-      <selection activeCell="M160" sqref="M160"/>
+    <sheetView tabSelected="1" topLeftCell="E49" zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
+      <selection activeCell="P2" sqref="P2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1677,13 +1679,13 @@
         <v>14</v>
       </c>
       <c r="P1" s="46" t="s">
-        <v>15</v>
+        <v>298</v>
       </c>
       <c r="Q1" s="46" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="2" spans="1:17" s="8" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:17" s="8" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="10">
         <v>1066718</v>
       </c>
@@ -1735,7 +1737,7 @@
         <v>Kapalı</v>
       </c>
     </row>
-    <row r="3" spans="1:17" s="8" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:17" s="8" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="10">
         <v>1153707</v>
       </c>
@@ -1787,7 +1789,7 @@
         <v>Kapalı</v>
       </c>
     </row>
-    <row r="4" spans="1:17" s="8" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:17" s="8" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="10">
         <v>1161066</v>
       </c>
@@ -1839,7 +1841,7 @@
         <v>Kapalı</v>
       </c>
     </row>
-    <row r="5" spans="1:17" s="8" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:17" s="8" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="10">
         <v>1169734</v>
       </c>
@@ -1891,7 +1893,7 @@
         <v>Kapalı</v>
       </c>
     </row>
-    <row r="6" spans="1:17" s="8" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:17" s="8" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="10">
         <v>1169733</v>
       </c>
@@ -1943,7 +1945,7 @@
         <v>Kapalı</v>
       </c>
     </row>
-    <row r="7" spans="1:17" s="8" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:17" s="8" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="10">
         <v>1172009</v>
       </c>
@@ -1997,7 +1999,7 @@
         <v>Kapalı</v>
       </c>
     </row>
-    <row r="8" spans="1:17" s="8" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:17" s="8" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="10">
         <v>1171874</v>
       </c>
@@ -2049,7 +2051,7 @@
         <v>Kapalı</v>
       </c>
     </row>
-    <row r="9" spans="1:17" s="8" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:17" s="8" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="10">
         <v>1172914</v>
       </c>
@@ -2103,7 +2105,7 @@
         <v>Kapalı</v>
       </c>
     </row>
-    <row r="10" spans="1:17" s="8" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:17" s="8" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="10">
         <v>1173113</v>
       </c>
@@ -2155,7 +2157,7 @@
         <v>Kapalı</v>
       </c>
     </row>
-    <row r="11" spans="1:17" s="8" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:17" s="8" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="10">
         <v>1173539</v>
       </c>
@@ -2209,7 +2211,7 @@
         <v>Kapalı</v>
       </c>
     </row>
-    <row r="12" spans="1:17" s="8" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:17" s="8" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="10">
         <v>1174194</v>
       </c>
@@ -2263,7 +2265,7 @@
         <v>Kapalı</v>
       </c>
     </row>
-    <row r="13" spans="1:17" s="8" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:17" s="8" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="10">
         <v>1174706</v>
       </c>
@@ -2317,7 +2319,7 @@
         <v>Kapalı</v>
       </c>
     </row>
-    <row r="14" spans="1:17" s="8" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:17" s="8" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="10">
         <v>1176225</v>
       </c>
@@ -2369,7 +2371,7 @@
         <v>Kapalı</v>
       </c>
     </row>
-    <row r="15" spans="1:17" s="8" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:17" s="8" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="10">
         <v>1177011</v>
       </c>
@@ -2421,7 +2423,7 @@
         <v>Kapalı</v>
       </c>
     </row>
-    <row r="16" spans="1:17" s="8" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:17" s="8" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="10">
         <v>1178126</v>
       </c>
@@ -2475,7 +2477,7 @@
         <v>Kapalı</v>
       </c>
     </row>
-    <row r="17" spans="1:17" s="8" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:17" s="8" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="10">
         <v>1178878</v>
       </c>
@@ -2529,7 +2531,7 @@
         <v>Kapalı</v>
       </c>
     </row>
-    <row r="18" spans="1:17" s="8" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:17" s="8" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="10">
         <v>1179842</v>
       </c>
@@ -2583,7 +2585,7 @@
         <v>Kapalı</v>
       </c>
     </row>
-    <row r="19" spans="1:17" s="8" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:17" s="8" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="10">
         <v>1180099</v>
       </c>
@@ -2637,7 +2639,7 @@
         <v>Kapalı</v>
       </c>
     </row>
-    <row r="20" spans="1:17" s="8" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:17" s="8" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="10">
         <v>1180719</v>
       </c>
@@ -2691,7 +2693,7 @@
         <v>Kapalı</v>
       </c>
     </row>
-    <row r="21" spans="1:17" s="8" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:17" s="8" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="10">
         <v>1180666</v>
       </c>
@@ -2745,7 +2747,7 @@
         <v>Kapalı</v>
       </c>
     </row>
-    <row r="22" spans="1:17" s="8" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:17" s="8" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="10">
         <v>1180575</v>
       </c>
@@ -2799,7 +2801,7 @@
         <v>Kapalı</v>
       </c>
     </row>
-    <row r="23" spans="1:17" s="8" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:17" s="8" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="10">
         <v>1181172</v>
       </c>
@@ -2853,7 +2855,7 @@
         <v>Kapalı</v>
       </c>
     </row>
-    <row r="24" spans="1:17" s="8" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:17" s="8" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="10">
         <v>1181779</v>
       </c>
@@ -2907,7 +2909,7 @@
         <v>Kapalı</v>
       </c>
     </row>
-    <row r="25" spans="1:17" s="8" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:17" s="8" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="10">
         <v>1182067</v>
       </c>
@@ -2961,7 +2963,7 @@
         <v>Kapalı</v>
       </c>
     </row>
-    <row r="26" spans="1:17" s="8" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:17" s="8" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="10">
         <v>1182735</v>
       </c>
@@ -3015,7 +3017,7 @@
         <v>Kapalı</v>
       </c>
     </row>
-    <row r="27" spans="1:17" s="8" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:17" s="8" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="10">
         <v>1183516</v>
       </c>
@@ -3069,7 +3071,7 @@
         <v>Kapalı</v>
       </c>
     </row>
-    <row r="28" spans="1:17" s="8" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:17" s="8" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="10">
         <v>1183691</v>
       </c>
@@ -3123,7 +3125,7 @@
         <v>Kapalı</v>
       </c>
     </row>
-    <row r="29" spans="1:17" s="8" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:17" s="8" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="10">
         <v>1183834</v>
       </c>
@@ -3177,7 +3179,7 @@
         <v>Kapalı</v>
       </c>
     </row>
-    <row r="30" spans="1:17" s="8" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:17" s="8" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="27">
         <v>1184807</v>
       </c>
@@ -3227,7 +3229,7 @@
         <v>Açık</v>
       </c>
     </row>
-    <row r="31" spans="1:17" s="8" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:17" s="8" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="10">
         <v>1184826</v>
       </c>
@@ -3281,7 +3283,7 @@
         <v>Kapalı</v>
       </c>
     </row>
-    <row r="32" spans="1:17" s="8" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:17" s="8" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="10">
         <v>1184814</v>
       </c>
@@ -3335,7 +3337,7 @@
         <v>Kapalı</v>
       </c>
     </row>
-    <row r="33" spans="1:17" s="8" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:17" s="8" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="10">
         <v>1184883</v>
       </c>
@@ -3389,7 +3391,7 @@
         <v>Kapalı</v>
       </c>
     </row>
-    <row r="34" spans="1:17" s="8" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:17" s="8" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="10">
         <v>1185155</v>
       </c>
@@ -3443,7 +3445,7 @@
         <v>Kapalı</v>
       </c>
     </row>
-    <row r="35" spans="1:17" s="8" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:17" s="8" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="10">
         <v>1186364</v>
       </c>
@@ -3497,7 +3499,7 @@
         <v>Kapalı</v>
       </c>
     </row>
-    <row r="36" spans="1:17" s="8" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:17" s="8" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="10">
         <v>1186396</v>
       </c>
@@ -3551,7 +3553,7 @@
         <v>Kapalı</v>
       </c>
     </row>
-    <row r="37" spans="1:17" s="8" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:17" s="8" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="10">
         <v>1186404</v>
       </c>
@@ -3605,7 +3607,7 @@
         <v>Kapalı</v>
       </c>
     </row>
-    <row r="38" spans="1:17" s="8" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:17" s="8" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="10">
         <v>1186733</v>
       </c>
@@ -3659,7 +3661,7 @@
         <v>Kapalı</v>
       </c>
     </row>
-    <row r="39" spans="1:17" s="8" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:17" s="8" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="34">
         <v>1187101</v>
       </c>
@@ -3709,7 +3711,7 @@
         <v>Açık</v>
       </c>
     </row>
-    <row r="40" spans="1:17" s="8" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:17" s="8" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="4">
         <v>1187102</v>
       </c>
@@ -3759,7 +3761,7 @@
         <v>Açık</v>
       </c>
     </row>
-    <row r="41" spans="1:17" s="8" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:17" s="8" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" s="10">
         <v>1187706</v>
       </c>
@@ -3813,7 +3815,7 @@
         <v>Kapalı</v>
       </c>
     </row>
-    <row r="42" spans="1:17" s="8" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:17" s="8" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="27">
         <v>1188190</v>
       </c>
@@ -3863,7 +3865,7 @@
         <v>Açık</v>
       </c>
     </row>
-    <row r="43" spans="1:17" s="8" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:17" s="8" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" s="10">
         <v>1189419</v>
       </c>
@@ -3917,7 +3919,7 @@
         <v>Kapalı</v>
       </c>
     </row>
-    <row r="44" spans="1:17" s="8" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:17" s="8" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" s="10">
         <v>1189652</v>
       </c>
@@ -3971,7 +3973,7 @@
         <v>Kapalı</v>
       </c>
     </row>
-    <row r="45" spans="1:17" s="8" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:17" s="8" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A45" s="10">
         <v>1189785</v>
       </c>
@@ -4025,7 +4027,7 @@
         <v>Kapalı</v>
       </c>
     </row>
-    <row r="46" spans="1:17" s="8" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:17" s="8" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="10">
         <v>1190790</v>
       </c>
@@ -4079,7 +4081,7 @@
         <v>Kapalı</v>
       </c>
     </row>
-    <row r="47" spans="1:17" s="8" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:17" s="8" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A47" s="10">
         <v>1191070</v>
       </c>
@@ -4133,7 +4135,7 @@
         <v>Kapalı</v>
       </c>
     </row>
-    <row r="48" spans="1:17" s="8" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:17" s="8" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A48" s="10">
         <v>1191099</v>
       </c>
@@ -4187,7 +4189,7 @@
         <v>Kapalı</v>
       </c>
     </row>
-    <row r="49" spans="1:17" s="8" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:17" s="8" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A49" s="10">
         <v>1191496</v>
       </c>
@@ -4241,7 +4243,7 @@
         <v>Kapalı</v>
       </c>
     </row>
-    <row r="50" spans="1:17" s="8" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:17" s="8" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A50" s="27">
         <v>1191777</v>
       </c>
@@ -4291,7 +4293,7 @@
         <v>Açık</v>
       </c>
     </row>
-    <row r="51" spans="1:17" s="8" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:17" s="8" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A51" s="10">
         <v>1191755</v>
       </c>
@@ -4345,7 +4347,7 @@
         <v>Kapalı</v>
       </c>
     </row>
-    <row r="52" spans="1:17" s="8" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:17" s="8" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A52" s="10">
         <v>1192136</v>
       </c>
@@ -4397,7 +4399,7 @@
         <v>Kapalı</v>
       </c>
     </row>
-    <row r="53" spans="1:17" s="8" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:17" s="8" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A53" s="10">
         <v>1192222</v>
       </c>
@@ -4451,7 +4453,7 @@
         <v>Kapalı</v>
       </c>
     </row>
-    <row r="54" spans="1:17" s="8" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:17" s="8" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A54" s="10">
         <v>1192182</v>
       </c>
@@ -4505,7 +4507,7 @@
         <v>Kapalı</v>
       </c>
     </row>
-    <row r="55" spans="1:17" s="8" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:17" s="8" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A55" s="10">
         <v>1192383</v>
       </c>
@@ -4559,7 +4561,7 @@
         <v>Kapalı</v>
       </c>
     </row>
-    <row r="56" spans="1:17" s="8" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:17" s="8" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A56" s="10">
         <v>1192651</v>
       </c>
@@ -4663,7 +4665,7 @@
         <v>Açık</v>
       </c>
     </row>
-    <row r="58" spans="1:17" s="8" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:17" s="8" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A58" s="4">
         <v>1193268</v>
       </c>
@@ -4713,7 +4715,7 @@
         <v>Açık</v>
       </c>
     </row>
-    <row r="59" spans="1:17" s="8" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:17" s="8" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A59" s="10">
         <v>1193141</v>
       </c>
@@ -4767,7 +4769,7 @@
         <v>Kapalı</v>
       </c>
     </row>
-    <row r="60" spans="1:17" s="8" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:17" s="8" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A60" s="10">
         <v>1193186</v>
       </c>
@@ -4821,7 +4823,7 @@
         <v>Kapalı</v>
       </c>
     </row>
-    <row r="61" spans="1:17" s="8" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:17" s="8" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A61" s="10">
         <v>1193504</v>
       </c>
@@ -4875,7 +4877,7 @@
         <v>Kapalı</v>
       </c>
     </row>
-    <row r="62" spans="1:17" s="8" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:17" s="8" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A62" s="10">
         <v>1193598</v>
       </c>
@@ -4929,7 +4931,7 @@
         <v>Kapalı</v>
       </c>
     </row>
-    <row r="63" spans="1:17" s="8" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:17" s="8" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A63" s="10">
         <v>1193649</v>
       </c>
@@ -4983,7 +4985,7 @@
         <v>Kapalı</v>
       </c>
     </row>
-    <row r="64" spans="1:17" s="8" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:17" s="8" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A64" s="34">
         <v>1194051</v>
       </c>
@@ -5033,7 +5035,7 @@
         <v>Açık</v>
       </c>
     </row>
-    <row r="65" spans="1:17" s="8" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:17" s="8" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A65" s="4">
         <v>1194588</v>
       </c>
@@ -5083,7 +5085,7 @@
         <v>Açık</v>
       </c>
     </row>
-    <row r="66" spans="1:17" s="8" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:17" s="8" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A66" s="10">
         <v>1194634</v>
       </c>
@@ -5137,7 +5139,7 @@
         <v>Kapalı</v>
       </c>
     </row>
-    <row r="67" spans="1:17" s="8" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:17" s="8" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A67" s="10">
         <v>1195341</v>
       </c>
@@ -5191,7 +5193,7 @@
         <v>Kapalı</v>
       </c>
     </row>
-    <row r="68" spans="1:17" s="8" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:17" s="8" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A68" s="10">
         <v>1195203</v>
       </c>
@@ -5245,7 +5247,7 @@
         <v>Kapalı</v>
       </c>
     </row>
-    <row r="69" spans="1:17" s="8" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:17" s="8" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A69" s="10">
         <v>1196700</v>
       </c>
@@ -5299,7 +5301,7 @@
         <v>Kapalı</v>
       </c>
     </row>
-    <row r="70" spans="1:17" s="8" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:17" s="8" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A70" s="10">
         <v>1197180</v>
       </c>
@@ -5353,7 +5355,7 @@
         <v>Kapalı</v>
       </c>
     </row>
-    <row r="71" spans="1:17" s="8" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:17" s="8" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A71" s="10">
         <v>1197192</v>
       </c>
@@ -5407,7 +5409,7 @@
         <v>Kapalı</v>
       </c>
     </row>
-    <row r="72" spans="1:17" s="8" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:17" s="8" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A72" s="10">
         <v>1198178</v>
       </c>
@@ -5461,7 +5463,7 @@
         <v>Kapalı</v>
       </c>
     </row>
-    <row r="73" spans="1:17" s="8" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:17" s="8" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A73" s="10">
         <v>1198502</v>
       </c>
@@ -5513,7 +5515,7 @@
         <v>Kapalı</v>
       </c>
     </row>
-    <row r="74" spans="1:17" s="8" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:17" s="8" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A74" s="10">
         <v>1198713</v>
       </c>
@@ -5567,7 +5569,7 @@
         <v>Kapalı</v>
       </c>
     </row>
-    <row r="75" spans="1:17" s="8" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:17" s="8" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A75" s="10">
         <v>1198740</v>
       </c>
@@ -5621,7 +5623,7 @@
         <v>Kapalı</v>
       </c>
     </row>
-    <row r="76" spans="1:17" s="8" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:17" s="8" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A76" s="10">
         <v>1199033</v>
       </c>
@@ -5675,7 +5677,7 @@
         <v>Kapalı</v>
       </c>
     </row>
-    <row r="77" spans="1:17" s="8" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:17" s="8" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A77" s="10">
         <v>1198799</v>
       </c>
@@ -5729,7 +5731,7 @@
         <v>Kapalı</v>
       </c>
     </row>
-    <row r="78" spans="1:17" s="8" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:17" s="8" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A78" s="10">
         <v>1198818</v>
       </c>
@@ -5783,7 +5785,7 @@
         <v>Kapalı</v>
       </c>
     </row>
-    <row r="79" spans="1:17" s="8" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:17" s="8" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A79" s="10">
         <v>1198926</v>
       </c>
@@ -5837,7 +5839,7 @@
         <v>Kapalı</v>
       </c>
     </row>
-    <row r="80" spans="1:17" s="8" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:17" s="8" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A80" s="10">
         <v>1199057</v>
       </c>
@@ -5891,7 +5893,7 @@
         <v>Kapalı</v>
       </c>
     </row>
-    <row r="81" spans="1:17" s="8" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:17" s="8" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A81" s="10">
         <v>1199730</v>
       </c>
@@ -5943,7 +5945,7 @@
         <v>Kapalı</v>
       </c>
     </row>
-    <row r="82" spans="1:17" s="8" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:17" s="8" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A82" s="10">
         <v>1199933</v>
       </c>
@@ -6045,7 +6047,7 @@
         <v>Açık</v>
       </c>
     </row>
-    <row r="84" spans="1:17" s="8" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:17" s="8" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A84" s="10">
         <v>1200453</v>
       </c>
@@ -6099,7 +6101,7 @@
         <v>Kapalı</v>
       </c>
     </row>
-    <row r="85" spans="1:17" s="8" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:17" s="8" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A85" s="10">
         <v>1200976</v>
       </c>
@@ -6153,7 +6155,7 @@
         <v>Kapalı</v>
       </c>
     </row>
-    <row r="86" spans="1:17" s="8" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:17" s="8" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A86" s="10">
         <v>1200991</v>
       </c>
@@ -6207,7 +6209,7 @@
         <v>Kapalı</v>
       </c>
     </row>
-    <row r="87" spans="1:17" s="8" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:17" s="8" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A87" s="10">
         <v>1200825</v>
       </c>
@@ -6261,7 +6263,7 @@
         <v>Kapalı</v>
       </c>
     </row>
-    <row r="88" spans="1:17" s="8" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:17" s="8" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A88" s="10">
         <v>1201282</v>
       </c>
@@ -6315,7 +6317,7 @@
         <v>Kapalı</v>
       </c>
     </row>
-    <row r="89" spans="1:17" s="8" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:17" s="8" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A89" s="10">
         <v>1201302</v>
       </c>
@@ -6369,7 +6371,7 @@
         <v>Kapalı</v>
       </c>
     </row>
-    <row r="90" spans="1:17" s="8" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:17" s="8" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A90" s="10">
         <v>1201456</v>
       </c>
@@ -6423,7 +6425,7 @@
         <v>Kapalı</v>
       </c>
     </row>
-    <row r="91" spans="1:17" s="8" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:17" s="8" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A91" s="10">
         <v>1201605</v>
       </c>
@@ -6477,7 +6479,7 @@
         <v>Kapalı</v>
       </c>
     </row>
-    <row r="92" spans="1:17" s="8" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:17" s="8" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A92" s="10">
         <v>1201875</v>
       </c>
@@ -6531,7 +6533,7 @@
         <v>Kapalı</v>
       </c>
     </row>
-    <row r="93" spans="1:17" s="8" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:17" s="8" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A93" s="10">
         <v>1201755</v>
       </c>
@@ -6585,7 +6587,7 @@
         <v>Kapalı</v>
       </c>
     </row>
-    <row r="94" spans="1:17" s="8" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:17" s="8" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A94" s="10">
         <v>1201756</v>
       </c>
@@ -6639,7 +6641,7 @@
         <v>Kapalı</v>
       </c>
     </row>
-    <row r="95" spans="1:17" s="8" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:17" s="8" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A95" s="27">
         <v>1201947</v>
       </c>
@@ -6687,7 +6689,7 @@
         <v>Açık</v>
       </c>
     </row>
-    <row r="96" spans="1:17" s="8" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:17" s="8" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A96" s="10">
         <v>1202240</v>
       </c>
@@ -6741,7 +6743,7 @@
         <v>Kapalı</v>
       </c>
     </row>
-    <row r="97" spans="1:17" s="8" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:17" s="8" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A97" s="10">
         <v>1202263</v>
       </c>
@@ -6795,7 +6797,7 @@
         <v>Kapalı</v>
       </c>
     </row>
-    <row r="98" spans="1:17" s="8" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:17" s="8" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A98" s="10">
         <v>1202386</v>
       </c>
@@ -6849,7 +6851,7 @@
         <v>Kapalı</v>
       </c>
     </row>
-    <row r="99" spans="1:17" s="8" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:17" s="8" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A99" s="10">
         <v>1202692</v>
       </c>
@@ -6903,7 +6905,7 @@
         <v>Kapalı</v>
       </c>
     </row>
-    <row r="100" spans="1:17" s="8" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:17" s="8" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A100" s="10">
         <v>1202711</v>
       </c>
@@ -6957,7 +6959,7 @@
         <v>Kapalı</v>
       </c>
     </row>
-    <row r="101" spans="1:17" s="8" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:17" s="8" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A101" s="10">
         <v>1203210</v>
       </c>
@@ -7011,7 +7013,7 @@
         <v>Kapalı</v>
       </c>
     </row>
-    <row r="102" spans="1:17" s="8" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:17" s="8" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A102" s="10">
         <v>1203221</v>
       </c>
@@ -7065,7 +7067,7 @@
         <v>Kapalı</v>
       </c>
     </row>
-    <row r="103" spans="1:17" s="8" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:17" s="8" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A103" s="10">
         <v>1203229</v>
       </c>
@@ -7119,7 +7121,7 @@
         <v>Kapalı</v>
       </c>
     </row>
-    <row r="104" spans="1:17" s="8" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:17" s="8" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A104" s="10">
         <v>1203266</v>
       </c>
@@ -7173,7 +7175,7 @@
         <v>Kapalı</v>
       </c>
     </row>
-    <row r="105" spans="1:17" s="8" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:17" s="8" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A105" s="10">
         <v>1203426</v>
       </c>
@@ -7227,7 +7229,7 @@
         <v>Kapalı</v>
       </c>
     </row>
-    <row r="106" spans="1:17" s="8" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:17" s="8" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A106" s="27">
         <v>1203383</v>
       </c>
@@ -7275,7 +7277,7 @@
         <v>Açık</v>
       </c>
     </row>
-    <row r="107" spans="1:17" s="8" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:17" s="8" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A107" s="10">
         <v>1203419</v>
       </c>
@@ -7329,7 +7331,7 @@
         <v>Kapalı</v>
       </c>
     </row>
-    <row r="108" spans="1:17" s="8" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:17" s="8" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A108" s="10">
         <v>1203550</v>
       </c>
@@ -7383,7 +7385,7 @@
         <v>Kapalı</v>
       </c>
     </row>
-    <row r="109" spans="1:17" s="8" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:17" s="8" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A109" s="10">
         <v>1203606</v>
       </c>
@@ -7437,7 +7439,7 @@
         <v>Kapalı</v>
       </c>
     </row>
-    <row r="110" spans="1:17" s="8" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:17" s="8" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A110" s="10">
         <v>1203910</v>
       </c>
@@ -7491,7 +7493,7 @@
         <v>Kapalı</v>
       </c>
     </row>
-    <row r="111" spans="1:17" s="8" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:17" s="8" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A111" s="10">
         <v>1204974</v>
       </c>
@@ -7545,7 +7547,7 @@
         <v>Kapalı</v>
       </c>
     </row>
-    <row r="112" spans="1:17" s="8" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:17" s="8" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A112" s="10">
         <v>1215628</v>
       </c>
@@ -7599,7 +7601,7 @@
         <v>Kapalı</v>
       </c>
     </row>
-    <row r="113" spans="1:17" s="8" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:17" s="8" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A113" s="10">
         <v>1215724</v>
       </c>
@@ -7653,7 +7655,7 @@
         <v>Kapalı</v>
       </c>
     </row>
-    <row r="114" spans="1:17" s="8" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:17" s="8" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A114" s="27">
         <v>1215762</v>
       </c>
@@ -7703,7 +7705,7 @@
         <v>Açık</v>
       </c>
     </row>
-    <row r="115" spans="1:17" s="8" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:17" s="8" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A115" s="10">
         <v>1215638</v>
       </c>
@@ -7757,7 +7759,7 @@
         <v>Kapalı</v>
       </c>
     </row>
-    <row r="116" spans="1:17" s="8" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:17" s="8" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A116" s="10">
         <v>1216838</v>
       </c>
@@ -7811,7 +7813,7 @@
         <v>Kapalı</v>
       </c>
     </row>
-    <row r="117" spans="1:17" s="8" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:17" s="8" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A117" s="27">
         <v>1217112</v>
       </c>
@@ -7859,7 +7861,7 @@
         <v>Açık</v>
       </c>
     </row>
-    <row r="118" spans="1:17" s="8" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:17" s="8" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A118" s="10">
         <v>1217579</v>
       </c>
@@ -7913,7 +7915,7 @@
         <v>Kapalı</v>
       </c>
     </row>
-    <row r="119" spans="1:17" s="8" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:17" s="8" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A119" s="10">
         <v>1217369</v>
       </c>
@@ -7967,7 +7969,7 @@
         <v>Kapalı</v>
       </c>
     </row>
-    <row r="120" spans="1:17" s="8" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:17" s="8" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A120" s="10">
         <v>1217370</v>
       </c>
@@ -8021,7 +8023,7 @@
         <v>Kapalı</v>
       </c>
     </row>
-    <row r="121" spans="1:17" s="8" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:17" s="8" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A121" s="10">
         <v>1218029</v>
       </c>
@@ -8075,7 +8077,7 @@
         <v>Kapalı</v>
       </c>
     </row>
-    <row r="122" spans="1:17" s="8" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:17" s="8" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A122" s="10">
         <v>1218099</v>
       </c>
@@ -8129,7 +8131,7 @@
         <v>Kapalı</v>
       </c>
     </row>
-    <row r="123" spans="1:17" s="8" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:17" s="8" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A123" s="10">
         <v>1218578</v>
       </c>
@@ -8183,7 +8185,7 @@
         <v>Kapalı</v>
       </c>
     </row>
-    <row r="124" spans="1:17" s="8" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:17" s="8" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A124" s="10">
         <v>1218908</v>
       </c>
@@ -8237,7 +8239,7 @@
         <v>Kapalı</v>
       </c>
     </row>
-    <row r="125" spans="1:17" s="8" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:17" s="8" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A125" s="10">
         <v>1219338</v>
       </c>
@@ -8291,7 +8293,7 @@
         <v>Kapalı</v>
       </c>
     </row>
-    <row r="126" spans="1:17" s="8" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:17" s="8" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A126" s="10">
         <v>1219703</v>
       </c>
@@ -8345,7 +8347,7 @@
         <v>Kapalı</v>
       </c>
     </row>
-    <row r="127" spans="1:17" s="8" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:17" s="8" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A127" s="10">
         <v>1220296</v>
       </c>
@@ -8399,7 +8401,7 @@
         <v>Kapalı</v>
       </c>
     </row>
-    <row r="128" spans="1:17" s="8" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:17" s="8" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A128" s="10">
         <v>1220442</v>
       </c>
@@ -8453,7 +8455,7 @@
         <v>Kapalı</v>
       </c>
     </row>
-    <row r="129" spans="1:17" s="8" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:17" s="8" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A129" s="10">
         <v>1221777</v>
       </c>
@@ -8507,7 +8509,7 @@
         <v>Kapalı</v>
       </c>
     </row>
-    <row r="130" spans="1:17" s="8" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:17" s="8" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A130" s="10">
         <v>1221778</v>
       </c>
@@ -8561,7 +8563,7 @@
         <v>Kapalı</v>
       </c>
     </row>
-    <row r="131" spans="1:17" s="8" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:17" s="8" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A131" s="10">
         <v>1222888</v>
       </c>
@@ -8615,7 +8617,7 @@
         <v>Kapalı</v>
       </c>
     </row>
-    <row r="132" spans="1:17" s="8" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:17" s="8" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A132" s="27">
         <v>1222913</v>
       </c>
@@ -8665,7 +8667,7 @@
         <v>Açık</v>
       </c>
     </row>
-    <row r="133" spans="1:17" s="8" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:17" s="8" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A133" s="10">
         <v>1222935</v>
       </c>
@@ -8719,7 +8721,7 @@
         <v>Kapalı</v>
       </c>
     </row>
-    <row r="134" spans="1:17" s="8" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:17" s="8" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A134" s="10">
         <v>1223037</v>
       </c>
@@ -8773,7 +8775,7 @@
         <v>Kapalı</v>
       </c>
     </row>
-    <row r="135" spans="1:17" s="8" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:17" s="8" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A135" s="10">
         <v>1223362</v>
       </c>
@@ -8827,7 +8829,7 @@
         <v>Kapalı</v>
       </c>
     </row>
-    <row r="136" spans="1:17" s="8" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:17" s="8" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A136" s="34">
         <v>1223945</v>
       </c>
@@ -8875,7 +8877,7 @@
         <v>Açık</v>
       </c>
     </row>
-    <row r="137" spans="1:17" s="8" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:17" s="8" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A137" s="1">
         <v>1224047</v>
       </c>
@@ -8975,7 +8977,7 @@
         <v>Açık</v>
       </c>
     </row>
-    <row r="139" spans="1:17" s="8" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:17" s="8" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A139" s="10">
         <v>1224630</v>
       </c>
@@ -9029,7 +9031,7 @@
         <v>Kapalı</v>
       </c>
     </row>
-    <row r="140" spans="1:17" s="8" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:17" s="8" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A140" s="10">
         <v>1224794</v>
       </c>
@@ -9083,7 +9085,7 @@
         <v>Kapalı</v>
       </c>
     </row>
-    <row r="141" spans="1:17" s="8" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:17" s="8" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A141" s="10">
         <v>1224811</v>
       </c>
@@ -9137,7 +9139,7 @@
         <v>Kapalı</v>
       </c>
     </row>
-    <row r="142" spans="1:17" s="8" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:17" s="8" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A142" s="10">
         <v>1225035</v>
       </c>
@@ -9189,7 +9191,7 @@
         <v>Kapalı</v>
       </c>
     </row>
-    <row r="143" spans="1:17" s="8" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:17" s="8" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A143" s="10">
         <v>1225010</v>
       </c>
@@ -9243,7 +9245,7 @@
         <v>Kapalı</v>
       </c>
     </row>
-    <row r="144" spans="1:17" s="8" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:17" s="8" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A144" s="10">
         <v>1225314</v>
       </c>
@@ -9297,7 +9299,7 @@
         <v>Kapalı</v>
       </c>
     </row>
-    <row r="145" spans="1:17" s="8" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:17" s="8" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A145" s="10">
         <v>1225370</v>
       </c>
@@ -9351,7 +9353,7 @@
         <v>Kapalı</v>
       </c>
     </row>
-    <row r="146" spans="1:17" s="8" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:17" s="8" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A146" s="10">
         <v>1225460</v>
       </c>
@@ -9405,7 +9407,7 @@
         <v>Kapalı</v>
       </c>
     </row>
-    <row r="147" spans="1:17" s="8" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:17" s="8" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A147" s="10">
         <v>1226028</v>
       </c>
@@ -9459,7 +9461,7 @@
         <v>Kapalı</v>
       </c>
     </row>
-    <row r="148" spans="1:17" s="8" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:17" s="8" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A148" s="10">
         <v>1227346</v>
       </c>
@@ -9513,7 +9515,7 @@
         <v>Kapalı</v>
       </c>
     </row>
-    <row r="149" spans="1:17" s="8" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:17" s="8" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A149" s="10">
         <v>1227457</v>
       </c>
@@ -9567,7 +9569,7 @@
         <v>Kapalı</v>
       </c>
     </row>
-    <row r="150" spans="1:17" s="8" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:17" s="8" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A150" s="10">
         <v>1227786</v>
       </c>
@@ -9619,7 +9621,7 @@
         <v>Kapalı</v>
       </c>
     </row>
-    <row r="151" spans="1:17" s="8" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:17" s="8" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A151" s="10">
         <v>1227792</v>
       </c>
@@ -9671,7 +9673,7 @@
         <v>Kapalı</v>
       </c>
     </row>
-    <row r="152" spans="1:17" s="8" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:17" s="8" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A152" s="34">
         <v>1228253</v>
       </c>
@@ -9771,7 +9773,7 @@
         <v>Açık</v>
       </c>
     </row>
-    <row r="154" spans="1:17" s="8" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:17" s="8" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A154" s="1">
         <v>1228310</v>
       </c>
@@ -9819,7 +9821,7 @@
         <v>Açık</v>
       </c>
     </row>
-    <row r="155" spans="1:17" s="8" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:17" s="8" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A155" s="1">
         <v>1228942</v>
       </c>
@@ -9963,7 +9965,7 @@
         <v>Açık</v>
       </c>
     </row>
-    <row r="158" spans="1:17" s="8" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:17" s="8" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A158" s="1">
         <v>1230105</v>
       </c>
@@ -10011,7 +10013,7 @@
         <v>Açık</v>
       </c>
     </row>
-    <row r="159" spans="1:17" s="8" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:17" s="8" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A159" s="1">
         <v>1230660</v>
       </c>
@@ -10108,17 +10110,14 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:Q160">
-    <filterColumn colId="10">
-      <filters blank="1"/>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:Q160"/>
   <conditionalFormatting sqref="A1:A160">
     <cfRule type="duplicateValues" dxfId="2" priority="3"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <customProperties>
-    <customPr name="EpmWorksheetKeyString_GUID" r:id="rId1"/>
+    <customPr name="EpmWorksheetKeyString_GUID" r:id="rId2"/>
   </customProperties>
 </worksheet>
 </file>
@@ -10159,9 +10158,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <customProperties>
-    <customPr name="EpmWorksheetKeyString_GUID" r:id="rId1"/>
-  </customProperties>
 </worksheet>
 </file>
 
@@ -10318,8 +10314,5 @@
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <customProperties>
-    <customPr name="EpmWorksheetKeyString_GUID" r:id="rId1"/>
-  </customProperties>
 </worksheet>
 </file>